--- a/VersionRecords/Version 5.3.3 20170314/定时器/新增定时器 (PS组).xlsx
+++ b/VersionRecords/Version 5.3.3 20170314/定时器/新增定时器 (PS组).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianwenbo\Desktop\Mogo_Doc\VersionRecords\Version 5.3.3 20170314\定时器\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.3.3 20170314\定时器\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>上线版本</t>
   </si>
@@ -81,47 +81,26 @@
     <t>LTS</t>
   </si>
   <si>
-    <t>PS组</t>
-  </si>
-  <si>
-    <t>鹰眼监控：检查用户征信信息变化、并记录到本地</t>
-  </si>
-  <si>
     <t>王岩</t>
   </si>
   <si>
-    <t>蒙先铭</t>
-  </si>
-  <si>
     <t>启用</t>
   </si>
   <si>
     <t>否</t>
   </si>
   <si>
-    <t>com.mogoroom.tasktracker.task.CheckYingYanNeedSyncUserListTask</t>
-  </si>
-  <si>
     <t>不用填</t>
   </si>
   <si>
-    <t>AdviseRenterReservationTask</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CheckYingYanNeedSyncUserListTask"}</t>
-  </si>
-  <si>
     <t>定时任务</t>
   </si>
   <si>
-    <t>每周2晚上20点</t>
-  </si>
-  <si>
     <t>可重复执行，如有错，需开发修复</t>
   </si>
   <si>
     <t>mogo-tasktracker</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>磐石组</t>
@@ -131,84 +110,84 @@
   </si>
   <si>
     <t>钱文博</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>com.mogoroom.tasktracker.task.BizdFlowActiveAccountLLHandleTask</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BizdFlowActiveAccountLLHandleTask</t>
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.BizdFlowActiveAccountLLHandleTask"}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>每天09:00执行一次</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>mogo-tasktracker</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>经理的私客。3天保护期，过期自动释放到公共客户池</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>com.mogoroom.tasktracker.task.BizdFlowManagerAutoReleaseTask</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BizdFlowManagerAutoReleaseTask</t>
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.BizdFlowManagerAutoReleaseTask"}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>我的线索客户，没开通账号，保护期30天 ，超过30天释放到公共池</t>
   </si>
   <si>
     <t>钱文博</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>com.mogoroom.tasktracker.task.BizdFlowNoAccountLLHandleTask</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BizdFlowNoAccountLLHandleTask</t>
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.BizdFlowNoAccountLLHandleTask"}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>每天09:00执行一次</t>
   </si>
   <si>
     <t>状态为开通账号的房东账号处理</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>com.mogoroom.tasktracker.task.BizdFlowOpenAccountLLHandleTask</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BizdFlowOpenAccountLLHandleTask</t>
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.BizdFlowOpenAccountLLHandleTask"}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,24 +210,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="63"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="63"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -357,37 +319,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,55 +362,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -849,13 +793,13 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -874,278 +818,224 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="P2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="18"/>
+      <c r="R2" s="12"/>
     </row>
-    <row r="3" spans="1:18" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="P3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="16"/>
+      <c r="R3" s="12"/>
     </row>
     <row r="4" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="M4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="16"/>
+      <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="33" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="K5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="Q5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" spans="1:18" ht="33" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="16"/>
+      <c r="R5" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
